--- a/Symal/27264/res_INF-HSEQ CC0375-ITP-008 Conduit and Pit Installation & Checklist - Rev.5.xlsx
+++ b/Symal/27264/res_INF-HSEQ CC0375-ITP-008 Conduit and Pit Installation & Checklist - Rev.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\27264\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B6958C-580F-41F7-9D59-738F312BAF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BBE346-6EF5-432B-AA5B-2C9BE5594C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2280" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9195" yWindow="1830" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="135">
   <si>
     <t>type</t>
   </si>
@@ -67,72 +67,15 @@
     <t>checklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Ref docs - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criteria - </t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
     <t>1.0 Preliminaries</t>
   </si>
   <si>
-    <t xml:space="preserve">Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGL Key - </t>
-  </si>
-  <si>
     <t>checkpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHL Key - </t>
-  </si>
-  <si>
     <t>INF-HSEQ CC0375-ITP-008 Conduit and Pit Installation &amp; Checklist - Rev.5</t>
   </si>
   <si>
@@ -142,49 +85,346 @@
     <t>3.0 Excavation, Installation and Backfill - Conduits</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8 - </t>
-  </si>
-  <si>
     <t>4.0 Excavation, Installation and Backfill - Pits</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3 - </t>
-  </si>
-  <si>
     <t>5.0 Conformance Check</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2 - </t>
+    <t>1.1 - Documentation</t>
+  </si>
+  <si>
+    <t>Ref docs - Issued drawings / Site copy drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Check that you have the latest site and engineering drawings BEFORE starting each task/set of tasks.</t>
+  </si>
+  <si>
+    <t>Key - S</t>
+  </si>
+  <si>
+    <t>UGL Key - S</t>
+  </si>
+  <si>
+    <t>SHL Key - S</t>
+  </si>
+  <si>
+    <t>1.2 - Lot Traceability</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Lots to be broken up accordingly and outlined on a lot map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks / record (eg. test frequency, reports, certificates, checklist etc) - </t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Lot map</t>
+  </si>
+  <si>
+    <t>1.3 - Underlying Lot Conformance</t>
+  </si>
+  <si>
+    <t>Ref docs - Underlying Lot ITP</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Underlying services and/or assets have been installed prior to commencing works over and/or above.</t>
+  </si>
+  <si>
+    <t>○ Refer underlying lot ITP(s)</t>
+  </si>
+  <si>
+    <t>1.4 - Set Out</t>
+  </si>
+  <si>
+    <t>Ref docs - Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Peg location of proposed underground services with levels from pit to pit. Peg property boundaries</t>
+  </si>
+  <si>
+    <t>2.1 - Conduit Supply</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical Installation [Cl 6.7]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Conduit system shall be a Category A wiring enclosure for an underground wiring system to AS/NZS3000 and AS/NZS 3013.</t>
+  </si>
+  <si>
+    <t>○ No corrugated conduit or similar shall be used under any circumstances.</t>
+  </si>
+  <si>
+    <t>○ HV &amp; LV Conduits: Shall be orange heavy-duty uPVC, sizes as per drawings otherwise min 150mm (HV) and 100mm (LV) to be used.</t>
+  </si>
+  <si>
+    <t>○ Comms Conduits: Shall be white heavy-duty uPVC, sizes as per drawings otherwise min 100mm to be used.</t>
+  </si>
+  <si>
+    <t>Material certification</t>
+  </si>
+  <si>
+    <t>2.2 - Pit Supply</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical Installation [Cl 6.11]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All pits are to be reinforced concrete complete with concrete lids. All lids shall be gatic with min load classification of Class D in accordance with AS 3996.</t>
+  </si>
+  <si>
+    <t>○ Pits lids shall be fixed to prevent unauthorised access.</t>
+  </si>
+  <si>
+    <t>2.3 - Embedment material</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical Installation [Cl 6.6, 6.11]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All conduits shall be surrounded by a min of 100mm compacted sand unless shown otherwise on the drawings. For power conduits, this compacted sand must have a min thermal rating of 1.2°C.m/W.</t>
+  </si>
+  <si>
+    <t>Material certifications</t>
+  </si>
+  <si>
+    <t>3.1 - Excavation</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical Installation [Cl 6.6], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All trenches unless otherwise directed by Snowy Hydro shall be excavated as per Drawings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 - Place Bedding </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pits shall be installed on a compacted sand base of not less than 100mm.</t>
+  </si>
+  <si>
+    <t>○ Bedding layer to be compacted for the full width of the trench to a depth of 100mm for Comms &amp; 150mm for Power Conduits.</t>
+  </si>
+  <si>
+    <t>3.3 - Conduit Installation</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical Installation [Cl 6.11, Cl.17.1], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Conduits to be installed as per the drawings in a straight line where possible and with no changes in diameter between pits. Joints to be sealed with a solvent cement or glue as per manufacturer recommendations.</t>
+  </si>
+  <si>
+    <t>Minimum separation to be 150mm for DN150 conduits and 100mm for all other sizes unless shown otherwise on the drawings</t>
+  </si>
+  <si>
+    <t>Minimum depth of cover to conduits to be:</t>
+  </si>
+  <si>
+    <t>WITNESS POINT – Prior to Backfilling</t>
+  </si>
+  <si>
+    <t>– 300mm for COMMS</t>
+  </si>
+  <si>
+    <t>– 500mm for LV</t>
+  </si>
+  <si>
+    <t>– 900mm for MV</t>
+  </si>
+  <si>
+    <t>Key - H</t>
+  </si>
+  <si>
+    <t>UGL Key - W</t>
+  </si>
+  <si>
+    <t>SHL Key - W</t>
+  </si>
+  <si>
+    <t>3.4 - Conduit bends</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All conduit bends shall be long sweep bends with a maximum 90-degree angle.</t>
+  </si>
+  <si>
+    <t>Min bend radius shall suit the min cable bending radius of the largest cable in the conduit and generally not be less than 1000mm.</t>
+  </si>
+  <si>
+    <t>3.5 - Marker tape</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical Installation [Cl 6.9]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Orange Polyethylene marker tapes, 150mm wide and 0.1mm deep, shall be laid in the trench directly over all underground conduits at approximately 50% of the depth of cover. The tape shall be marked with the warning:</t>
+  </si>
+  <si>
+    <t>“WARNING BURIED POWER CABLES”</t>
+  </si>
+  <si>
+    <t>or similar in black letters that will not fade.</t>
+  </si>
+  <si>
+    <t>3.6 - Backfill - Conduits</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical Installation [Cl 6.6]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Backfill the full width of trench with compacted sand to above the level specified for compacted sand, back to natural surface level.</t>
+  </si>
+  <si>
+    <t>○ Layers not to exceed 150mm compacted thickness.</t>
+  </si>
+  <si>
+    <t>3.7 - Compaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref docs - Spec. 0002 General Electrical Installation [Cl 6.6], Spec. 1112 Earthworks (Roadways) [Cl 4.13, 7.1] </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Each layer to be compacted to a density that is no less than the density of the existing adjacent material. If the existing material density is unknown, minimum relative compaction to be:</t>
+  </si>
+  <si>
+    <t>– 95% for foundations</t>
+  </si>
+  <si>
+    <t>– 70% for conduit encasement</t>
+  </si>
+  <si>
+    <t>– 97% for select fill areas</t>
+  </si>
+  <si>
+    <t>– 92% for general fill areas</t>
+  </si>
+  <si>
+    <t>Test reports</t>
+  </si>
+  <si>
+    <t>3.8 - Cable Markers</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical Installation [Cl 6.10]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Install Concrete Cable markers on the surface of all underground cable joints, at every change in direction, and on straight runs at least every 30m.</t>
+  </si>
+  <si>
+    <t>○ Markers to be a 400mm square and 100mm deep concrete block with a brass label attached. Label to identify conduit type and direction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1 - Excavation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2 - Place Bedding </t>
+  </si>
+  <si>
+    <t>4.3 - Pit Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Pits to be installed as per drawings and manufacturers specifications. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ All conduit entries are to be fitted with proprietary bell-mouths installed flush with the pit wall. </t>
+  </si>
+  <si>
+    <t>○ All pit joints and bell-mouths are to be mastic sealed or glued as per manufacturer recommendations.</t>
+  </si>
+  <si>
+    <t>4.4 - Pit Drainage</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pits to be installed with a drainage system as per the drawings to prevent pooling of water</t>
+  </si>
+  <si>
+    <t>4.5 - Step Irons</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pits deeper than 600 to be fitted with galvanised plastic-coated step irons as per AS1657</t>
+  </si>
+  <si>
+    <t>4.6 - Access Covers</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pits to be fitted with Class D Concrete Infill Gatic Lids to AS 3996.</t>
+  </si>
+  <si>
+    <t>4.7 - Brass Marker Plates</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical Installation [Cl 6.11], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Brass marker plates to be installed at each pit showing cable/conduit routes, contact phone number, organisation &amp; drawing number.</t>
+  </si>
+  <si>
+    <t>4.8 - Backfill - Pits</t>
+  </si>
+  <si>
+    <t>4.9 - Compaction</t>
+  </si>
+  <si>
+    <t>– 95% for pit and conduit bedding</t>
+  </si>
+  <si>
+    <t>4.10 - Rope and Mandrel</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical Installation [Cl 6.7.5]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Draw ropes or wires to be installed in all conduits that will require further cabling.</t>
+  </si>
+  <si>
+    <t>WITNESS POINT – Prior to Cabling</t>
+  </si>
+  <si>
+    <t>○ All conduits to be mandrel inspected prior to cabling to check for blockages.</t>
+  </si>
+  <si>
+    <t>5.1 - Survey Report</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - An as-built survey of the conduit and pit system has been completed to ensure all structures are within construction tolerances.</t>
+  </si>
+  <si>
+    <t>Key - R</t>
+  </si>
+  <si>
+    <t>UGL Key - R</t>
+  </si>
+  <si>
+    <t>SHL Key - R</t>
+  </si>
+  <si>
+    <t>Survey report</t>
+  </si>
+  <si>
+    <t>5.2 - Acceptance and closure of non-conforming items</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 3.8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - NCRs to be opened for non-conforming items and closed prior to closing construction lot. </t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>UGL Key - H</t>
+  </si>
+  <si>
+    <t>SHL Key - H</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
   </si>
 </sst>
 </file>
@@ -327,7 +567,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +767,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +937,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -706,6 +952,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1063,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:I240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1363,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1123,24 +1375,24 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1148,7 +1400,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1156,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1175,7 +1427,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1183,7 +1435,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1191,15 +1443,15 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1207,26 +1459,26 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1234,7 +1486,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1242,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1250,23 +1502,23 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,18 +1526,15 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1293,15 +1542,18 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,15 +1561,15 @@
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,26 +1577,23 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>16</v>
+      <c r="A27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>12</v>
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,15 +1601,18 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>20</v>
+      <c r="A30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,50 +1620,47 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>16</v>
+      <c r="B35" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>12</v>
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1427,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1435,23 +1684,26 @@
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>27</v>
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>15</v>
+      <c r="A41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1459,18 +1711,15 @@
         <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>12</v>
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1478,7 +1727,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,23 +1735,23 @@
         <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,7 +1759,7 @@
         <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1518,26 +1767,26 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1545,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1553,50 +1802,47 @@
         <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>39</v>
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>29</v>
+      <c r="A55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>16</v>
+      <c r="A57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>12</v>
+      <c r="A58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,15 +1850,18 @@
         <v>13</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>20</v>
+      <c r="A60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,15 +1869,15 @@
         <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>33</v>
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1636,7 +1885,7 @@
         <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1644,34 +1893,31 @@
         <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>12</v>
+      <c r="A65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>19</v>
+      <c r="A66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>20</v>
+      <c r="A67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1679,23 +1925,26 @@
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>32</v>
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>15</v>
+      <c r="A70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1703,18 +1952,15 @@
         <v>13</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>12</v>
+      <c r="A72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1722,15 +1968,15 @@
         <v>13</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>20</v>
+      <c r="A74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,15 +1984,15 @@
         <v>13</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>31</v>
+      <c r="A76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1754,26 +2000,26 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>16</v>
+      <c r="A78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>12</v>
+      <c r="A79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1781,7 +2027,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1789,23 +2035,23 @@
         <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>36</v>
+      <c r="A82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>30</v>
+      <c r="A83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1813,7 +2059,7 @@
         <v>13</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,18 +2067,15 @@
         <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>12</v>
+      <c r="A86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1840,7 +2083,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1848,7 +2091,7 @@
         <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,23 +2099,26 @@
         <v>13</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>40</v>
+      <c r="A90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>15</v>
+      <c r="A91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1880,18 +2126,15 @@
         <v>13</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>12</v>
+      <c r="A93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1899,15 +2142,15 @@
         <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>20</v>
+      <c r="A95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1915,15 +2158,15 @@
         <v>13</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>41</v>
+      <c r="A97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1931,26 +2174,26 @@
         <v>13</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>16</v>
+      <c r="A99" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>12</v>
+      <c r="A100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,7 +2201,7 @@
         <v>13</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1966,23 +2209,23 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>36</v>
+      <c r="A103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>42</v>
+      <c r="A104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,7 +2233,7 @@
         <v>13</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1998,26 +2241,26 @@
         <v>13</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B108" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,7 +2268,7 @@
         <v>13</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2033,23 +2276,23 @@
         <v>13</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>43</v>
+      <c r="A111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2057,7 +2300,7 @@
         <v>13</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2065,18 +2308,15 @@
         <v>13</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>12</v>
+      <c r="A115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2084,7 +2324,7 @@
         <v>13</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2092,7 +2332,7 @@
         <v>13</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,23 +2340,23 @@
         <v>13</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>15</v>
+      <c r="B120" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,18 +2364,15 @@
         <v>13</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>12</v>
+      <c r="A122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2143,7 +2380,7 @@
         <v>13</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2151,7 +2388,7 @@
         <v>13</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2159,15 +2396,18 @@
         <v>13</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>51</v>
+      <c r="A126" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2175,7 +2415,7 @@
         <v>13</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2183,18 +2423,15 @@
         <v>13</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>12</v>
+      <c r="A129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2202,31 +2439,31 @@
         <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>36</v>
+      <c r="A132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>50</v>
+      <c r="A133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2234,7 +2471,7 @@
         <v>13</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2242,7 +2479,7 @@
         <v>13</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,7 +2498,7 @@
         <v>13</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2269,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2277,23 +2514,23 @@
         <v>13</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>15</v>
+      <c r="A141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2301,26 +2538,26 @@
         <v>13</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B144" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C144" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2328,7 +2565,7 @@
         <v>13</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2336,23 +2573,23 @@
         <v>13</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>48</v>
+      <c r="A147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>15</v>
+      <c r="A148" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,18 +2597,15 @@
         <v>13</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>12</v>
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2379,15 +2613,18 @@
         <v>13</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>20</v>
+      <c r="A152" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2395,15 +2632,15 @@
         <v>13</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>47</v>
+      <c r="A154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2411,26 +2648,23 @@
         <v>13</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>16</v>
+      <c r="A156" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>12</v>
+      <c r="A157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2438,7 +2672,7 @@
         <v>13</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2446,7 +2680,7 @@
         <v>13</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2454,23 +2688,26 @@
         <v>13</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>46</v>
+      <c r="A161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>15</v>
+      <c r="A162" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2478,18 +2715,15 @@
         <v>13</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>12</v>
+      <c r="A164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2497,15 +2731,15 @@
         <v>13</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>20</v>
+      <c r="A166" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2513,23 +2747,26 @@
         <v>13</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>45</v>
+      <c r="A168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>15</v>
+      <c r="A169" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2537,18 +2774,15 @@
         <v>13</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>12</v>
+      <c r="A171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2556,15 +2790,15 @@
         <v>13</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>20</v>
+      <c r="A173" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2572,23 +2806,26 @@
         <v>13</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>44</v>
+      <c r="A175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>15</v>
+      <c r="A176" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2596,18 +2833,15 @@
         <v>13</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>12</v>
+      <c r="A178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2615,15 +2849,15 @@
         <v>13</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>20</v>
+      <c r="A180" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2631,23 +2865,26 @@
         <v>13</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>52</v>
+      <c r="A182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>53</v>
+      <c r="A183" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2655,7 +2892,7 @@
         <v>13</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2663,26 +2900,23 @@
         <v>13</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>12</v>
+      <c r="A186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>19</v>
+      <c r="A187" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2690,7 +2924,7 @@
         <v>13</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2698,15 +2932,18 @@
         <v>13</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>54</v>
+      <c r="A190" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2714,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2722,26 +2959,23 @@
         <v>13</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>12</v>
+      <c r="A193" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>19</v>
+      <c r="A194" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2749,7 +2983,7 @@
         <v>13</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2757,7 +2991,374 @@
         <v>13</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
